--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15562</v>
+        <v>85922</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Isaac Lopes</t>
+          <t>Dr. Kaique Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>10389.51</v>
+        <v>4949.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75269</v>
+        <v>29466</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Giovanna Oliveira</t>
+          <t>Dr. Benício da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>11638.16</v>
+        <v>10806.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55888</v>
+        <v>44052</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Ana Júlia Cunha</t>
+          <t>Isabelly da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,51 +552,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>11804.22</v>
+        <v>10974.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54439</v>
+        <v>50257</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabella Silva</t>
+          <t>Marcelo Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>7915.46</v>
+        <v>3239.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75900</v>
+        <v>580</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietra Nunes</t>
+          <t>Davi Lucas Vieira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,84 +606,84 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>4910.32</v>
+        <v>5077.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92517</v>
+        <v>85480</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yasmin Nascimento</t>
+          <t>Arthur da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>8785.129999999999</v>
+        <v>12289.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58259</v>
+        <v>48336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara Barbosa</t>
+          <t>Dra. Isis da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>10368.33</v>
+        <v>3889.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57989</v>
+        <v>86146</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Miguel Cardoso</t>
+          <t>Ana Sophia Caldeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>12285.15</v>
+        <v>7654.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21560</v>
+        <v>8033</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Benjamin Viana</t>
+          <t>Julia da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>9789.16</v>
+        <v>5443.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4873</v>
+        <v>59853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carolina Fogaça</t>
+          <t>Calebe Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>11506.93</v>
+        <v>4760.03</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85922</v>
+        <v>56185</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Kaique Melo</t>
+          <t>Arthur Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>4949.91</v>
+        <v>8276.700000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>29466</v>
+        <v>71754</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Benício da Conceição</t>
+          <t>Erick Souza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>10806.39</v>
+        <v>8715.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44052</v>
+        <v>28831</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly da Cruz</t>
+          <t>Bruna Silveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>10974.29</v>
+        <v>6163.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50257</v>
+        <v>43093</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcelo Fogaça</t>
+          <t>Thomas da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>3239.88</v>
+        <v>9673.780000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>580</v>
+        <v>86349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Lucas Vieira</t>
+          <t>Eloah Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>5077.3</v>
+        <v>9205.690000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85480</v>
+        <v>75799</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur da Cruz</t>
+          <t>Matheus Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>12289.86</v>
+        <v>4191.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48336</v>
+        <v>57251</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Isis da Rocha</t>
+          <t>Dra. Maria Cecília Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>3889.93</v>
+        <v>10713.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86146</v>
+        <v>44385</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Sophia Caldeira</t>
+          <t>Juliana Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>7654.28</v>
+        <v>3798.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8033</v>
+        <v>70574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julia da Luz</t>
+          <t>Ana Beatriz Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5443.32</v>
+        <v>7632.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59853</v>
+        <v>57942</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calebe Barros</t>
+          <t>Srta. Mariane Caldeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>4760.03</v>
+        <v>11761.95</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56185</v>
+        <v>17361</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur Melo</t>
+          <t>Sarah Gomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>8276.700000000001</v>
+        <v>4470.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71754</v>
+        <v>6612</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erick Souza</t>
+          <t>Vitória da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>8715.76</v>
+        <v>6391.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28831</v>
+        <v>21957</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruna Silveira</t>
+          <t>Sr. Levi Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>6163.15</v>
+        <v>4845.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43093</v>
+        <v>8025</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thomas da Costa</t>
+          <t>Dra. Giovanna Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>9673.780000000001</v>
+        <v>2951.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86349</v>
+        <v>57948</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eloah Porto</t>
+          <t>Rafael Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>9205.690000000001</v>
+        <v>4170.46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75799</v>
+        <v>3023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matheus Barbosa</t>
+          <t>Anthony Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>4191.9</v>
+        <v>9884.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57251</v>
+        <v>64168</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Oliveira</t>
+          <t>Heloísa Castro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>10713.18</v>
+        <v>9312.620000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44385</v>
+        <v>48296</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juliana Correia</t>
+          <t>Renan Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,55 +693,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>3798.93</v>
+        <v>12264.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70574</v>
+        <v>44584</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Beatriz Martins</t>
+          <t>Emanuella Sales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>7632.23</v>
+        <v>5271.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57942</v>
+        <v>98749</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Mariane Caldeira</t>
+          <t>Otávio Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>11761.95</v>
+        <v>9319.129999999999</v>
       </c>
     </row>
   </sheetData>
